--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_1_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_1_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.57000000000009</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001844763144264627</v>
+        <v>1.981960426045148e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001844763144264627</v>
+        <v>1.981960426045148e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>47.51999645780658</v>
+        <v>59.05951211380641</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[17.87876183596181, 77.16123107965136]</t>
+          <t>[34.19850579560922, 83.9205184320036]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.00232213953064675</v>
+        <v>1.877359626090147e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00232213953064675</v>
+        <v>1.877359626090147e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.66671081721981</v>
+        <v>1.742184514603347</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.8616580451287321, 2.4717635893108882]</t>
+          <t>[1.2138686329185768, 2.270500396288118]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0001369556290340412</v>
+        <v>3.469432119374005e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001369556290340412</v>
+        <v>3.469432119374005e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>63.236068663839</v>
+        <v>66.84039887302761</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[45.90926408670245, 80.56287324097555]</t>
+          <t>[51.25404932770047, 82.42674841835475]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.08570835549915e-09</v>
+        <v>4.15085743554755e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>3.08570835549915e-09</v>
+        <v>4.15085743554755e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>16.58296296296303</v>
+        <v>16.2034434434435</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.69111111111116</v>
+        <v>14.31827827827832</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.47481481481489</v>
+        <v>18.08860860860867</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.57000000000009</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002026568528560313</v>
+        <v>0.0002622415560687985</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002026568528560313</v>
+        <v>0.0002622415560687985</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>54.09230567354365</v>
+        <v>46.3685727756158</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[21.593487961068604, 86.5911233860187]</t>
+          <t>[18.18714639686206, 74.54999915436954]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.001631994545770787</v>
+        <v>0.001822701307429231</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001631994545770787</v>
+        <v>0.001822701307429231</v>
       </c>
       <c r="P3" t="n">
-        <v>2.19502669890458</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.628973968528041, 2.7610794292811187]</t>
+          <t>[1.4906055233248878, 2.7233425805893496]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>6.519833561924315e-10</v>
+        <v>1.509658065224073e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>6.519833561924315e-10</v>
+        <v>1.509658065224073e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>77.28777432560813</v>
+        <v>57.16187149599351</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[60.36244201371443, 94.21310663750182]</t>
+          <t>[42.42348832563974, 71.90025466634728]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>6.688205544946868e-12</v>
+        <v>6.490814552506663e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>6.688205544946868e-12</v>
+        <v>6.490814552506663e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>14.68518518518524</v>
+        <v>14.90178178178182</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.65185185185191</v>
+        <v>12.70242242242246</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.71851851851858</v>
+        <v>17.10114114114119</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.57000000000009</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001534528374573796</v>
+        <v>0.02132371256284349</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001534528374573796</v>
+        <v>0.02132371256284349</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>58.05694499097457</v>
+        <v>35.43827454216042</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[24.573687271402406, 91.54020271054674]</t>
+          <t>[2.6204908642923783, 68.25605822002846]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001085871775357461</v>
+        <v>0.03493045669497064</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001085871775357461</v>
+        <v>0.03493045669497064</v>
       </c>
       <c r="P4" t="n">
-        <v>2.144710900648889</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.5535002711445038, 2.7359215301532736]</t>
+          <t>[1.3773949772495793, 3.9435006882898906]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.585996388721924e-09</v>
+        <v>0.0001341798557361606</v>
       </c>
       <c r="S4" t="n">
-        <v>3.585996388721924e-09</v>
+        <v>0.0001341798557361606</v>
       </c>
       <c r="T4" t="n">
-        <v>63.25273751123503</v>
+        <v>61.39661508228335</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.48031370237656, 81.0251613200935]</t>
+          <t>[43.55892258643678, 79.23430757812991]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.739945629912313e-09</v>
+        <v>1.283371497962094e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>5.739945629912313e-09</v>
+        <v>1.283371497962094e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>14.86592592592598</v>
+        <v>12.92684684684688</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.74222222222227</v>
+        <v>8.348588588588612</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.98962962962969</v>
+        <v>17.50510510510516</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.57000000000009</v>
+        <v>22.42000000000007</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0005264496378658556</v>
+        <v>0.007431744497329862</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0005264496378658556</v>
+        <v>0.007431744497329862</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>40.51587430633478</v>
+        <v>38.93503183556402</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[17.834757069822096, 63.196991542847464]</t>
+          <t>[9.459456809239342, 68.4106068618887]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0007945177216253096</v>
+        <v>0.01077535047978695</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0007945177216253096</v>
+        <v>0.01077535047978695</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.056684744033312</v>
+        <v>3.025237370123504</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.786263818740851, -2.327105669325773]</t>
+          <t>[2.031500354573579, 4.018974385673429]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8.002110085669756e-11</v>
+        <v>1.991128184553048e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>8.002110085669756e-11</v>
+        <v>1.991128184553048e-07</v>
       </c>
       <c r="T5" t="n">
-        <v>65.15875303343206</v>
+        <v>68.06344991015791</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[51.19363940579716, 79.12386666106697]</t>
+          <t>[50.80702503213385, 85.31987478818198]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.51119133767952e-12</v>
+        <v>4.157676425364798e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>3.51119133767952e-12</v>
+        <v>4.157676425364798e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>10.98000000000004</v>
+        <v>11.62518518518522</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.359259259259293</v>
+        <v>8.079279279279302</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.60074074074079</v>
+        <v>15.17109109109114</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.62000000000041</v>
+        <v>24.72000000000043</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01624844085215127</v>
+        <v>0.120998073104335</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01624844085215127</v>
+        <v>0.120998073104335</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>32.67164146925144</v>
+        <v>24.7928930036514</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[4.274286084710035, 61.06899685379285]</t>
+          <t>[-4.248146979877085, 53.83393298717988]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0250966182751966</v>
+        <v>0.09239951261996548</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0250966182751966</v>
+        <v>0.09239951261996548</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72334258058935</v>
+        <v>2.987500521431735</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.6541318676558867, 3.7925532935228135]</t>
+          <t>[1.3019212798660398, 4.67307976299743]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.959038322789212e-06</v>
+        <v>0.0008636887738302512</v>
       </c>
       <c r="S6" t="n">
-        <v>5.959038322789212e-06</v>
+        <v>0.0008636887738302512</v>
       </c>
       <c r="T6" t="n">
-        <v>74.70411965950788</v>
+        <v>65.02046807232892</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[59.326778558898965, 90.0814607601168]</t>
+          <t>[48.45067443988829, 81.59026170476956]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.024069717914244e-12</v>
+        <v>4.766242955867028e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>1.024069717914244e-12</v>
+        <v>4.766242955867028e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>13.9488688688691</v>
+        <v>12.96624624624647</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.75927927927944</v>
+        <v>6.334654654654761</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.13845845845876</v>
+        <v>19.59783783783818</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.62000000000041</v>
+        <v>24.72000000000043</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004517168754036294</v>
+        <v>0.0001219126133685799</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004517168754036294</v>
+        <v>0.0001219126133685799</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>41.70569248828998</v>
+        <v>51.74444881295538</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[13.922968366321129, 69.48841661025884]</t>
+          <t>[22.02700634712818, 81.46189127878259]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.004116987643040915</v>
+        <v>0.001039871008395199</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004116987643040915</v>
+        <v>0.001039871008395199</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.069263693597235</v>
+        <v>2.371131992799504</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.949790163071852, -2.188737224122618]</t>
+          <t>[1.842816111114733, 2.899447874484274]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>9.498236863692e-09</v>
+        <v>1.114530689960702e-11</v>
       </c>
       <c r="S7" t="n">
-        <v>9.498236863692e-09</v>
+        <v>1.114530689960702e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>71.38433083392493</v>
+        <v>69.89371792657892</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[54.60372918621066, 88.16493248163921]</t>
+          <t>[54.17881554974821, 85.60862030340962]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.21551690724209e-11</v>
+        <v>1.45292666786645e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>5.21551690724209e-11</v>
+        <v>1.45292666786645e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>12.02658658658679</v>
+        <v>15.3912312312315</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.576336336336476</v>
+        <v>13.3126726726729</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.4768368368371</v>
+        <v>17.46978978979009</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.62000000000041</v>
+        <v>24.72000000000043</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.006302961555668007</v>
+        <v>1.676083752566448e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006302961555668007</v>
+        <v>1.676083752566448e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>37.40996412486426</v>
+        <v>65.03530747565681</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[8.606709772729943, 66.21321847699858]</t>
+          <t>[37.49878451232502, 92.5718304389886]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.01206935806628007</v>
+        <v>2.057341204575458e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01206935806628007</v>
+        <v>2.057341204575458e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>2.836553126664658</v>
+        <v>2.673026782333658</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.956026657190041, 3.7170795961392753]</t>
+          <t>[2.232763547596349, 3.113290017070966]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5.868284835841564e-08</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="S8" t="n">
-        <v>5.868284835841564e-08</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="T8" t="n">
-        <v>56.69241794787759</v>
+        <v>64.27071050745879</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[41.0192065339208, 72.36562936183438]</t>
+          <t>[48.962492969189654, 79.57892804572792]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.853532160036366e-09</v>
+        <v>7.546696600968517e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>3.853532160036366e-09</v>
+        <v>7.546696600968517e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>13.50526526526549</v>
+        <v>14.20348348348373</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.05501501501518</v>
+        <v>12.47135135135157</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.9555155155158</v>
+        <v>15.93561561561589</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.62000000000041</v>
+        <v>24.72000000000043</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005596967728100699</v>
+        <v>0.0002525334600129714</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005596967728100699</v>
+        <v>0.0002525334600129714</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>38.0689710767106</v>
+        <v>56.38186576130744</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[7.6210403298425575, 68.51690182357864]</t>
+          <t>[21.91138138704332, 90.85235013557156]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.01542019001685846</v>
+        <v>0.001927623296138936</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01542019001685846</v>
+        <v>0.001927623296138936</v>
       </c>
       <c r="P9" t="n">
-        <v>2.584974135386196</v>
+        <v>2.647868883205812</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.8302371615508113, 3.3397111092215814]</t>
+          <t>[2.0440793041375027, 3.251658462274121]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.442273966922869e-08</v>
+        <v>2.186495429157276e-11</v>
       </c>
       <c r="S9" t="n">
-        <v>1.442273966922869e-08</v>
+        <v>2.186495429157276e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>69.79243287308719</v>
+        <v>73.58457628550727</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[53.96946015577541, 85.61540559039898]</t>
+          <t>[55.72192920007582, 91.44722337093872]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.849809194709451e-11</v>
+        <v>1.279025774181264e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>1.849809194709451e-11</v>
+        <v>1.279025774181264e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>14.49105105105129</v>
+        <v>14.30246246246271</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.53369369369389</v>
+        <v>11.92696696696717</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.4484084084087</v>
+        <v>16.67795795795825</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.62000000000041</v>
+        <v>24.72000000000043</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001398682026650944</v>
+        <v>0.0005906754493449906</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001398682026650944</v>
+        <v>0.0005906754493449906</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>54.05955014104525</v>
+        <v>45.31484200002466</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[23.395023713488655, 84.72407656860184]</t>
+          <t>[16.202258506580343, 74.42742549346897]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0009138491462084009</v>
+        <v>0.003023933833587789</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0009138491462084009</v>
+        <v>0.003023933833587789</v>
       </c>
       <c r="P10" t="n">
-        <v>1.880552959806503</v>
+        <v>2.547237286694427</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.2516054816103486, 2.509500438002658]</t>
+          <t>[1.9057108589343486, 3.188763714454505]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.894500148453716e-07</v>
+        <v>3.479849741694352e-10</v>
       </c>
       <c r="S10" t="n">
-        <v>2.894500148453716e-07</v>
+        <v>3.479849741694352e-10</v>
       </c>
       <c r="T10" t="n">
-        <v>69.54443908533612</v>
+        <v>56.50105483989638</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[52.84106785189371, 86.24781031877853]</t>
+          <t>[41.15589348044735, 71.84621619934542]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.528222655319496e-11</v>
+        <v>2.472387850005475e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>9.528222655319496e-11</v>
+        <v>2.472387850005475e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>17.25125125125154</v>
+        <v>14.69837837837863</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.78678678678703</v>
+        <v>12.17441441441462</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.71571571571604</v>
+        <v>17.22234234234264</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.62000000000041</v>
+        <v>24.72000000000043</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002481616558475119</v>
+        <v>8.912587465670363e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002481616558475119</v>
+        <v>8.912587465670363e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>55.49948008629434</v>
+        <v>51.1160449176632</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[20.673684678450186, 90.3252754941385]</t>
+          <t>[21.6736514005847, 80.55843843474169]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.002451812997670721</v>
+        <v>0.001071640462158463</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002451812997670721</v>
+        <v>0.001071640462158463</v>
       </c>
       <c r="P11" t="n">
-        <v>2.308237244979888</v>
+        <v>2.232763547596349</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.7547634641672718, 2.861711025792505]</t>
+          <t>[1.7170266154755014, 2.7485004797171966]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>9.09572417384652e-11</v>
+        <v>3.166955586664244e-11</v>
       </c>
       <c r="S11" t="n">
-        <v>9.09572417384652e-11</v>
+        <v>3.166955586664244e-11</v>
       </c>
       <c r="T11" t="n">
-        <v>68.92995738722983</v>
+        <v>63.55410526357332</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[51.228031683318875, 86.63188309114079]</t>
+          <t>[48.282092047469035, 78.8261184796776]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.844007500144244e-10</v>
+        <v>9.657763477832759e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>5.844007500144244e-10</v>
+        <v>9.657763477832759e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>15.57541541541567</v>
+        <v>15.93561561561589</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.40668668668691</v>
+        <v>13.90654654654679</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.74414414414444</v>
+        <v>17.964684684685</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.62000000000041</v>
+        <v>24.72000000000043</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001481925843852538</v>
+        <v>3.210967635447481e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001481925843852538</v>
+        <v>3.210967635447481e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>54.71593747625416</v>
+        <v>57.36621799923068</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[22.67724864695799, 86.75462630555033]</t>
+          <t>[33.50605182222415, 81.2263841762372]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.001266637809498983</v>
+        <v>1.551532844090708e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001266637809498983</v>
+        <v>1.551532844090708e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>2.19502669890458</v>
+        <v>1.754763464167271</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.6163950189641172, 2.7736583788450426]</t>
+          <t>[1.2516054816103468, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.155929130192135e-09</v>
+        <v>9.38234112624059e-09</v>
       </c>
       <c r="S12" t="n">
-        <v>1.155929130192135e-09</v>
+        <v>9.38234112624059e-09</v>
       </c>
       <c r="T12" t="n">
-        <v>71.85238402251838</v>
+        <v>70.92511730913867</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[54.96506483020041, 88.73970321483634]</t>
+          <t>[56.68464577873671, 85.16558883954063]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.186695517522821e-11</v>
+        <v>4.716227408607665e-13</v>
       </c>
       <c r="W12" t="n">
-        <v>5.186695517522821e-11</v>
+        <v>4.716227408607665e-13</v>
       </c>
       <c r="X12" t="n">
-        <v>16.01901901901929</v>
+        <v>17.81621621621652</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.75171171171194</v>
+        <v>15.83663663663691</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.28632632632663</v>
+        <v>19.79579579579614</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.62000000000041</v>
+        <v>24.72000000000043</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.009188511467801863</v>
+        <v>5.676803356780002e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009188511467801863</v>
+        <v>5.676803356780002e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>42.35543823319986</v>
+        <v>56.67126961539194</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[9.899358678468175, 74.81151778793155]</t>
+          <t>[30.925433602000737, 82.41710562878313]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.01169305945748245</v>
+        <v>5.903104950721882e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01169305945748245</v>
+        <v>5.903104950721882e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>1.817658211986887</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.77360539818127, 2.8617110257925047]</t>
+          <t>[0.9874475407679641, 2.220184598032426]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.001041419480737993</v>
+        <v>4.109943662733428e-06</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001041419480737993</v>
+        <v>4.109943662733428e-06</v>
       </c>
       <c r="T13" t="n">
-        <v>70.76118799964908</v>
+        <v>56.87412632474198</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[51.83696906253694, 89.68540693676123]</t>
+          <t>[40.32307863545758, 73.42517401402638]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.673295280113507e-09</v>
+        <v>1.334476817937968e-08</v>
       </c>
       <c r="W13" t="n">
-        <v>1.673295280113507e-09</v>
+        <v>1.334476817937968e-08</v>
       </c>
       <c r="X13" t="n">
-        <v>17.49769769769799</v>
+        <v>18.41009009009041</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.40668668668691</v>
+        <v>15.98510510510538</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.58870870870907</v>
+        <v>20.83507507507543</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.62000000000041</v>
+        <v>24.72000000000043</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>9.888215146447443e-05</v>
+        <v>0.0005146943131483228</v>
       </c>
       <c r="I14" t="n">
-        <v>9.888215146447443e-05</v>
+        <v>0.0005146943131483228</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>55.90931074608618</v>
+        <v>53.86818573635328</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[26.89416147933052, 84.92446001284183]</t>
+          <t>[23.934832137367877, 83.80153933533867]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0003371044537368029</v>
+        <v>0.0007335860877972777</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0003371044537368029</v>
+        <v>0.0007335860877972777</v>
       </c>
       <c r="P14" t="n">
-        <v>1.779921363295118</v>
+        <v>1.46544762419704</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.1761317842268095, 2.383710942363427]</t>
+          <t>[0.7484474990534231, 2.182447749340657]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.86691903608849e-07</v>
+        <v>0.0001620006941285279</v>
       </c>
       <c r="S14" t="n">
-        <v>3.86691903608849e-07</v>
+        <v>0.0001620006941285279</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07368906725991</v>
+        <v>66.98397585222456</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[54.17570330060704, 87.97167483391277]</t>
+          <t>[48.68063263775656, 85.28731906669256]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>7.174083549443822e-11</v>
+        <v>2.880695681994894e-09</v>
       </c>
       <c r="W14" t="n">
-        <v>7.174083549443822e-11</v>
+        <v>2.880695681994894e-09</v>
       </c>
       <c r="X14" t="n">
-        <v>17.64556556556586</v>
+        <v>18.9544744744748</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.27967967967993</v>
+        <v>16.13357357357385</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.01145145145179</v>
+        <v>21.77537537537576</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_1_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_1_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.42000000000007</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.981960426045148e-05</v>
+        <v>0.0005491536914636885</v>
       </c>
       <c r="I2" t="n">
-        <v>1.981960426045148e-05</v>
+        <v>0.0005491536914636885</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>59.05951211380641</v>
+        <v>49.30273565298099</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[34.19850579560922, 83.9205184320036]</t>
+          <t>[22.17146192891363, 76.43400937704834]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.877359626090147e-05</v>
+        <v>0.0006597479740937384</v>
       </c>
       <c r="O2" t="n">
-        <v>1.877359626090147e-05</v>
+        <v>0.0006597479740937384</v>
       </c>
       <c r="P2" t="n">
-        <v>1.742184514603347</v>
+        <v>1.717026615475503</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2138686329185768, 2.270500396288118]</t>
+          <t>[1.0629212381515014, 2.371131992799505]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.469432119374005e-08</v>
+        <v>3.51784047203374e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>3.469432119374005e-08</v>
+        <v>3.51784047203374e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>66.84039887302761</v>
+        <v>54.97750079889723</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.25404932770047, 82.42674841835475]</t>
+          <t>[38.75129441430991, 71.20370718348455]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.15085743554755e-11</v>
+        <v>1.858357157047408e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>4.15085743554755e-11</v>
+        <v>1.858357157047408e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>16.2034434434435</v>
+        <v>16.1914714714715</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.31827827827832</v>
+        <v>13.87203203203205</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.08860860860867</v>
+        <v>18.51091091091095</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.42000000000007</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002622415560687985</v>
+        <v>0.005774744803402454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002622415560687985</v>
+        <v>0.005774744803402454</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>46.3685727756158</v>
+        <v>42.78030669868753</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[18.18714639686206, 74.54999915436954]</t>
+          <t>[9.62375149322932, 75.93686190414574]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.001822701307429231</v>
+        <v>0.01260725345255009</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001822701307429231</v>
+        <v>0.01260725345255009</v>
       </c>
       <c r="P3" t="n">
-        <v>2.106974051957119</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.4906055233248878, 2.7233425805893496]</t>
+          <t>[1.1132370364071944, 2.849132076228581]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.509658065224073e-08</v>
+        <v>3.468445336873849e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.509658065224073e-08</v>
+        <v>3.468445336873849e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>57.16187149599351</v>
+        <v>65.6812613606818</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[42.42348832563974, 71.90025466634728]</t>
+          <t>[48.00652179305817, 83.35600092830543]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>6.490814552506663e-10</v>
+        <v>1.958669004764602e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>6.490814552506663e-10</v>
+        <v>1.958669004764602e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>14.90178178178182</v>
+        <v>15.25477477477481</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.70242242242246</v>
+        <v>12.17705705705708</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.10114114114119</v>
+        <v>18.33249249249253</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.42000000000007</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02132371256284349</v>
+        <v>3.285189545543243e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02132371256284349</v>
+        <v>3.285189545543243e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>35.43827454216042</v>
+        <v>51.33444425691767</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[2.6204908642923783, 68.25605822002846]</t>
+          <t>[23.06578197923423, 79.60310653460111]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.03493045669497064</v>
+        <v>0.0006647237786998605</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03493045669497064</v>
+        <v>0.0006647237786998605</v>
       </c>
       <c r="P4" t="n">
-        <v>2.660447832769735</v>
+        <v>2.23276354759635</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.3773949772495793, 3.9435006882898906]</t>
+          <t>[1.704447665911581, 2.7610794292811187]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0001341798557361606</v>
+        <v>6.273670472012327e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0001341798557361606</v>
+        <v>6.273670472012327e-11</v>
       </c>
       <c r="T4" t="n">
-        <v>61.39661508228335</v>
+        <v>55.67793753394828</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.55892258643678, 79.23430757812991]</t>
+          <t>[41.33989627709967, 70.0159787907969]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.283371497962094e-08</v>
+        <v>6.283173981103118e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>1.283371497962094e-08</v>
+        <v>6.283173981103118e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>12.92684684684688</v>
+        <v>14.36268268268271</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.348588588588612</v>
+        <v>12.48928928928932</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.50510510510516</v>
+        <v>16.2360760760761</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.42000000000007</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007431744497329862</v>
+        <v>3.105778876077991e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007431744497329862</v>
+        <v>3.105778876077991e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>38.93503183556402</v>
+        <v>57.31942817488553</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[9.459456809239342, 68.4106068618887]</t>
+          <t>[34.823751386516804, 79.81510496325426]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01077535047978695</v>
+        <v>5.920552376359467e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01077535047978695</v>
+        <v>5.920552376359467e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>3.025237370123504</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.031500354573579, 4.018974385673429]</t>
+          <t>[-3.5598427265902357, -2.5786846606042344]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.991128184553048e-07</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S5" t="n">
-        <v>1.991128184553048e-07</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T5" t="n">
-        <v>68.06344991015791</v>
+        <v>64.4351749597178</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.80702503213385, 85.31987478818198]</t>
+          <t>[50.03538598532269, 78.8349639341129]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.157676425364798e-10</v>
+        <v>1.216382550239814e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>4.157676425364798e-10</v>
+        <v>1.216382550239814e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>11.62518518518522</v>
+        <v>10.88352352352354</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.079279279279302</v>
+        <v>9.14394394394396</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.17109109109114</v>
+        <v>12.62310310310313</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.72000000000043</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.120998073104335</v>
+        <v>0.0002644932444331172</v>
       </c>
       <c r="I6" t="n">
-        <v>0.120998073104335</v>
+        <v>0.0002644932444331172</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>24.7928930036514</v>
+        <v>50.71788895752869</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.248146979877085, 53.83393298717988]</t>
+          <t>[25.1528882545784, 76.28288966047897]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.09239951261996548</v>
+        <v>0.0002363824908178103</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09239951261996548</v>
+        <v>0.0002363824908178103</v>
       </c>
       <c r="P6" t="n">
-        <v>2.987500521431735</v>
+        <v>-3.119579491852928</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.3019212798660398, 4.67307976299743]</t>
+          <t>[-3.773684869176929, -2.465474114528927]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.0008636887738302512</v>
+        <v>1.80544468264543e-12</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0008636887738302512</v>
+        <v>1.80544468264543e-12</v>
       </c>
       <c r="T6" t="n">
-        <v>65.02046807232892</v>
+        <v>63.59880962936407</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.45067443988829, 81.59026170476956]</t>
+          <t>[47.66273717794772, 79.53488208078042]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.766242955867028e-10</v>
+        <v>3.034850148964097e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>4.766242955867028e-10</v>
+        <v>3.034850148964097e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>12.96624624624647</v>
+        <v>12.29821821821843</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.334654654654761</v>
+        <v>9.71955955955973</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.59783783783818</v>
+        <v>14.87687687687714</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.72000000000043</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001219126133685799</v>
+        <v>0.000484312694047917</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001219126133685799</v>
+        <v>0.000484312694047917</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>51.74444881295538</v>
+        <v>51.59343424484051</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[22.02700634712818, 81.46189127878259]</t>
+          <t>[20.88550234803077, 82.30136614165025]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.001039871008395199</v>
+        <v>0.001489501843602969</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001039871008395199</v>
+        <v>0.001489501843602969</v>
       </c>
       <c r="P7" t="n">
-        <v>2.371131992799504</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.842816111114733, 2.899447874484274]</t>
+          <t>[2.157289850212811, 3.5158164031165047]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.114530689960702e-11</v>
+        <v>8.769562853672142e-11</v>
       </c>
       <c r="S7" t="n">
-        <v>1.114530689960702e-11</v>
+        <v>8.769562853672142e-11</v>
       </c>
       <c r="T7" t="n">
-        <v>69.89371792657892</v>
+        <v>68.75621907997603</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[54.17881554974821, 85.60862030340962]</t>
+          <t>[51.698687853946296, 85.81375030600577]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.45292666786645e-11</v>
+        <v>2.318545355706192e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.45292666786645e-11</v>
+        <v>2.318545355706192e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>15.3912312312315</v>
+        <v>13.58754754754779</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.3126726726729</v>
+        <v>10.9097097097099</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.46978978979009</v>
+        <v>16.26538538538567</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.72000000000043</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.676083752566448e-06</v>
+        <v>7.246562508778087e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>1.676083752566448e-06</v>
+        <v>7.246562508778087e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>65.03530747565681</v>
+        <v>57.86730221659572</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[37.49878451232502, 92.5718304389886]</t>
+          <t>[28.49537545301021, 87.23922898018124]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.057341204575458e-05</v>
+        <v>0.0002575729294884699</v>
       </c>
       <c r="O8" t="n">
-        <v>2.057341204575458e-05</v>
+        <v>0.0002575729294884699</v>
       </c>
       <c r="P8" t="n">
-        <v>2.673026782333658</v>
+        <v>2.823974177100735</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.232763547596349, 3.113290017070966]</t>
+          <t>[2.232763547596349, 3.4151848066051205]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.722400000403468e-12</v>
       </c>
       <c r="S8" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.722400000403468e-12</v>
       </c>
       <c r="T8" t="n">
-        <v>64.27071050745879</v>
+        <v>81.31318086082166</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[48.962492969189654, 79.57892804572792]</t>
+          <t>[64.56260867741132, 98.063753044232]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.546696600968517e-11</v>
+        <v>1.048494624455998e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>7.546696600968517e-11</v>
+        <v>1.048494624455998e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>14.20348348348373</v>
+        <v>13.63713713713738</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.47135135135157</v>
+        <v>11.30642642642662</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.93561561561589</v>
+        <v>15.96784784784813</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.72000000000043</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002525334600129714</v>
+        <v>0.001394913786738394</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002525334600129714</v>
+        <v>0.001394913786738394</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>56.38186576130744</v>
+        <v>44.60234969363474</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[21.91138138704332, 90.85235013557156]</t>
+          <t>[13.23125136904157, 75.97344801822791]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.001927623296138936</v>
+        <v>0.006340668651552805</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001927623296138936</v>
+        <v>0.006340668651552805</v>
       </c>
       <c r="P9" t="n">
-        <v>2.647868883205812</v>
+        <v>2.459184639746966</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.0440793041375027, 3.251658462274121]</t>
+          <t>[1.7925003128590413, 3.12586896663489]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.186495429157276e-11</v>
+        <v>2.362245066223068e-09</v>
       </c>
       <c r="S9" t="n">
-        <v>2.186495429157276e-11</v>
+        <v>2.362245066223068e-09</v>
       </c>
       <c r="T9" t="n">
-        <v>73.58457628550727</v>
+        <v>65.2560252910467</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[55.72192920007582, 91.44722337093872]</t>
+          <t>[48.967924703110505, 81.5441258789829]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.279025774181264e-10</v>
+        <v>2.733979709290679e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>1.279025774181264e-10</v>
+        <v>2.733979709290679e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>14.30246246246271</v>
+        <v>15.0752352352355</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.92696696696717</v>
+        <v>12.4469869869872</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.67795795795825</v>
+        <v>17.70348348348379</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.72000000000043</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0005906754493449906</v>
+        <v>0.0001790442648146318</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0005906754493449906</v>
+        <v>0.0001790442648146318</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>45.31484200002466</v>
+        <v>51.79315700091392</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[16.202258506580343, 74.42742549346897]</t>
+          <t>[20.096140581977437, 83.49017341985041]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.003023933833587789</v>
+        <v>0.00194601472632483</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003023933833587789</v>
+        <v>0.00194601472632483</v>
       </c>
       <c r="P10" t="n">
-        <v>2.547237286694427</v>
+        <v>2.471763589310888</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.9057108589343486, 3.188763714454505]</t>
+          <t>[1.8931319093704255, 3.050395269251351]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.479849741694352e-10</v>
+        <v>4.635491990256924e-11</v>
       </c>
       <c r="S10" t="n">
-        <v>3.479849741694352e-10</v>
+        <v>4.635491990256924e-11</v>
       </c>
       <c r="T10" t="n">
-        <v>56.50105483989638</v>
+        <v>69.46021749466645</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.15589348044735, 71.84621619934542]</t>
+          <t>[53.34717594559541, 85.5732590437375]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.472387850005475e-09</v>
+        <v>3.57824880836688e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>2.472387850005475e-09</v>
+        <v>3.57824880836688e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>14.69837837837863</v>
+        <v>15.02564564564591</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.17441441441462</v>
+        <v>12.74452452452475</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.22234234234264</v>
+        <v>17.30676676676707</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.72000000000043</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>8.912587465670363e-05</v>
+        <v>0.006951332979486469</v>
       </c>
       <c r="I11" t="n">
-        <v>8.912587465670363e-05</v>
+        <v>0.006951332979486469</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>51.1160449176632</v>
+        <v>42.98685738802902</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[21.6736514005847, 80.55843843474169]</t>
+          <t>[7.287933067616123, 78.68578170844192]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.001071640462158463</v>
+        <v>0.01937166899686549</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001071640462158463</v>
+        <v>0.01937166899686549</v>
       </c>
       <c r="P11" t="n">
-        <v>2.232763547596349</v>
+        <v>2.459184639746966</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.7170266154755014, 2.7485004797171966]</t>
+          <t>[1.7170266154755023, 3.201342664018429]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.166955586664244e-11</v>
+        <v>3.108280610675251e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>3.166955586664244e-11</v>
+        <v>3.108280610675251e-08</v>
       </c>
       <c r="T11" t="n">
-        <v>63.55410526357332</v>
+        <v>71.1494889615492</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[48.282092047469035, 78.8261184796776]</t>
+          <t>[52.74360130199018, 89.55537662110821]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>9.657763477832759e-11</v>
+        <v>7.081970565536722e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>9.657763477832759e-11</v>
+        <v>7.081970565536722e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>15.93561561561589</v>
+        <v>15.0752352352355</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.90654654654679</v>
+        <v>12.14944944944965</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.964684684685</v>
+        <v>18.00102102102134</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.72000000000043</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.210967635447481e-06</v>
+        <v>0.00224389379428469</v>
       </c>
       <c r="I12" t="n">
-        <v>3.210967635447481e-06</v>
+        <v>0.00224389379428469</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>57.36621799923068</v>
+        <v>48.65323439707544</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[33.50605182222415, 81.2263841762372]</t>
+          <t>[12.429447578415633, 84.87702121573525]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.551532844090708e-05</v>
+        <v>0.009605469065547378</v>
       </c>
       <c r="O12" t="n">
-        <v>1.551532844090708e-05</v>
+        <v>0.009605469065547378</v>
       </c>
       <c r="P12" t="n">
-        <v>1.754763464167271</v>
+        <v>2.132131951084965</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.2516054816103468, 2.257921446724196]</t>
+          <t>[1.4025528763774258, 2.861711025792504]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>9.38234112624059e-09</v>
+        <v>4.608223747037954e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>9.38234112624059e-09</v>
+        <v>4.608223747037954e-07</v>
       </c>
       <c r="T12" t="n">
-        <v>70.92511730913867</v>
+        <v>63.76084578223482</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[56.68464577873671, 85.16558883954063]</t>
+          <t>[45.03254058019664, 82.48915098427301]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.716227408607665e-13</v>
+        <v>1.660715431839321e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>4.716227408607665e-13</v>
+        <v>1.660715431839321e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>17.81621621621652</v>
+        <v>16.36456456456485</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.83663663663691</v>
+        <v>13.48836836836861</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.79579579579614</v>
+        <v>19.24076076076109</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.72000000000043</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>5.676803356780002e-05</v>
+        <v>8.814274757851237e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>5.676803356780002e-05</v>
+        <v>8.814274757851237e-07</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>56.67126961539194</v>
+        <v>64.22831950872417</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[30.925433602000737, 82.41710562878313]</t>
+          <t>[36.372098815763096, 92.08454020168524]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>5.903104950721882e-05</v>
+        <v>2.9797251093866e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>5.903104950721882e-05</v>
+        <v>2.9797251093866e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>1.603816069400195</v>
+        <v>1.943447707626119</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.9874475407679641, 2.220184598032426]</t>
+          <t>[1.4906055233248878, 2.396289891927349]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.109943662733428e-06</v>
+        <v>4.061773140051628e-11</v>
       </c>
       <c r="S13" t="n">
-        <v>4.109943662733428e-06</v>
+        <v>4.061773140051628e-11</v>
       </c>
       <c r="T13" t="n">
-        <v>56.87412632474198</v>
+        <v>69.51332643523327</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[40.32307863545758, 73.42517401402638]</t>
+          <t>[54.58555550147838, 84.44109736898815]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.334476817937968e-08</v>
+        <v>3.725908470642025e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>1.334476817937968e-08</v>
+        <v>3.725908470642025e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>18.41009009009041</v>
+        <v>17.10840840840871</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.98510510510538</v>
+        <v>15.32318318318345</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.83507507507543</v>
+        <v>18.89363363363396</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.72000000000043</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0005146943131483228</v>
+        <v>0.0006815483161308755</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0005146943131483228</v>
+        <v>0.0006815483161308755</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>53.86818573635328</v>
+        <v>45.67851519532397</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[23.934832137367877, 83.80153933533867]</t>
+          <t>[16.504070872931194, 74.85295951771674]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0007335860877972777</v>
+        <v>0.002871883105008965</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0007335860877972777</v>
+        <v>0.002871883105008965</v>
       </c>
       <c r="P14" t="n">
-        <v>1.46544762419704</v>
+        <v>1.188710733790733</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.7484474990534231, 2.182447749340657]</t>
+          <t>[0.4968685077749626, 1.8805529598065025]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.0001620006941285279</v>
+        <v>0.001191599870456805</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0001620006941285279</v>
+        <v>0.001191599870456805</v>
       </c>
       <c r="T14" t="n">
-        <v>66.98397585222456</v>
+        <v>63.98845763353145</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[48.68063263775656, 85.28731906669256]</t>
+          <t>[48.20427027992352, 79.77264498713939]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.880695681994894e-09</v>
+        <v>1.984759023798688e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>2.880695681994894e-09</v>
+        <v>1.984759023798688e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>18.9544744744748</v>
+        <v>20.08378378378413</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.13357357357385</v>
+        <v>17.35635635635666</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.77537537537576</v>
+        <v>22.81121121121161</v>
       </c>
     </row>
   </sheetData>
